--- a/options.xlsx
+++ b/options.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnicholson\Desktop\Configuration Example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,115 +26,99 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="27">
   <si>
-    <t xml:space="preserve">Option A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possible Option B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possible option D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">option D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possible Option E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possible Option F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,45,46,47,48,49,50,51,54,55,56,57,59,60,69,70,71,72,73,74,75,76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with slider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,28,29,30,31,32,33,34,35,36,45,46,47,48,49,50,51,54,55,56,57,59,60,69,70,71,72,73,74,75,76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,45,46,47,48,52,49,50,51,53,54,56,57,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,28,29,30,31,32,33,34,35,36,45,46,47,48,52,49,50,51,53,54,56,57,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,45,46,47,48,52,49,50,51,54,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,28,29,30,31,32,33,34,35,36,45,46,47,48,52,49,50,51,54,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{37,38,39,40,41,42,43,44,56,57,59,60}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{3,5,6,7,11,29,30,31,46,56,57,59,60,61,62,63,64}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{none}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21}</t>
+    <t>Option A</t>
+  </si>
+  <si>
+    <t>Possible Option B</t>
+  </si>
+  <si>
+    <t>Option C</t>
+  </si>
+  <si>
+    <t>Option B</t>
+  </si>
+  <si>
+    <t>possible option D</t>
+  </si>
+  <si>
+    <t>option D</t>
+  </si>
+  <si>
+    <t>possible Option E</t>
+  </si>
+  <si>
+    <t>possible Option F</t>
+  </si>
+  <si>
+    <t>{1,2,3}</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,45,46,47,48,49,50,51,54,55,56,57,59,60,69,70,71,72,73,74,75,76}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31}</t>
+  </si>
+  <si>
+    <t>{1,2}</t>
+  </si>
+  <si>
+    <t>with slider</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,28,29,30,31,32,33,34,35,36,45,46,47,48,49,50,51,54,55,56,57,59,60,69,70,71,72,73,74,75,76}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,45,46,47,48,52,49,50,51,53,54,56,57,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,28,29,30,31,32,33,34,35,36,45,46,47,48,52,49,50,51,53,54,56,57,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,45,46,47,48,52,49,50,51,54,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,28,29,30,31,32,33,34,35,36,45,46,47,48,52,49,50,51,54,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76}</t>
+  </si>
+  <si>
+    <t>{37,38,39,40,41,42,43,44,56,57,59,60}</t>
+  </si>
+  <si>
+    <t>{3,5,6,7,11,29,30,31,46,56,57,59,60,61,62,63,64}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17}</t>
+  </si>
+  <si>
+    <t>{none}</t>
+  </si>
+  <si>
+    <t>{1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,7 +144,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000EE"/>
       <name val="Lohit Devanagari"/>
@@ -187,7 +175,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -244,14 +232,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -267,103 +255,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="18">
+    <cellStyle name="Accent" xfId="14"/>
+    <cellStyle name="Accent 1" xfId="15"/>
+    <cellStyle name="Accent 2" xfId="16"/>
+    <cellStyle name="Accent 3" xfId="17"/>
+    <cellStyle name="Bad" xfId="11"/>
+    <cellStyle name="Error" xfId="13"/>
+    <cellStyle name="Footnote" xfId="6"/>
+    <cellStyle name="Good" xfId="9"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading 1" xfId="2"/>
+    <cellStyle name="Heading 2" xfId="3"/>
+    <cellStyle name="Hyperlink" xfId="7"/>
+    <cellStyle name="Neutral" xfId="10"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Note" xfId="5"/>
+    <cellStyle name="Status" xfId="8"/>
+    <cellStyle name="Text" xfId="4"/>
+    <cellStyle name="Warning" xfId="12"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -422,39 +366,313 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="158.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="48.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="70.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="2.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="158.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125"/>
+    <col min="11" max="11" width="48.28515625" customWidth="1"/>
+    <col min="12" max="12" width="70.7109375" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,28 +706,28 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:14">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -521,28 +739,28 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:14">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -554,26 +772,26 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:14">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>3</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -585,26 +803,26 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:14">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>4</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -616,26 +834,26 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:14">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>5</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -647,26 +865,26 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="3">
         <v>6</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -678,20 +896,20 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="5">
         <v>7</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -703,20 +921,20 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="3">
         <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="3">
         <v>8</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -728,20 +946,20 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="3">
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="5">
         <v>9</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -753,20 +971,20 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="3">
         <v>10</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -778,20 +996,20 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="5">
         <v>11</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -803,20 +1021,20 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="3">
         <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="3">
         <v>12</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -828,20 +1046,20 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="3">
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="5">
         <v>13</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -853,20 +1071,20 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="3">
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="3">
         <v>14</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -878,20 +1096,20 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="3">
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="5">
         <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -903,20 +1121,20 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:14">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="3">
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="3">
         <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -928,17 +1146,17 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="0" t="n">
+    <row r="18" spans="4:14">
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="5">
         <v>17</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -949,17 +1167,17 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="0" t="n">
+    <row r="19" spans="4:14">
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="3">
         <v>18</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -970,8 +1188,8 @@
       </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="5" t="n">
+    <row r="20" spans="4:14">
+      <c r="J20" s="5">
         <v>19</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -982,9 +1200,9 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="4:14">
       <c r="H21" s="6"/>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="3">
         <v>20</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -995,8 +1213,8 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="5" t="n">
+    <row r="22" spans="4:14">
+      <c r="J22" s="5">
         <v>21</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -1007,8 +1225,8 @@
       </c>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="3" t="n">
+    <row r="23" spans="4:14">
+      <c r="J23" s="3">
         <v>22</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -1019,8 +1237,8 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="5" t="n">
+    <row r="24" spans="4:14">
+      <c r="J24" s="5">
         <v>23</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -1031,8 +1249,8 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="3" t="n">
+    <row r="25" spans="4:14">
+      <c r="J25" s="3">
         <v>24</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -1043,8 +1261,8 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="5" t="n">
+    <row r="26" spans="4:14">
+      <c r="J26" s="5">
         <v>25</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -1055,8 +1273,8 @@
       </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="3" t="n">
+    <row r="27" spans="4:14">
+      <c r="J27" s="3">
         <v>26</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -1067,8 +1285,8 @@
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="5" t="n">
+    <row r="28" spans="4:14">
+      <c r="J28" s="5">
         <v>27</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -1079,8 +1297,8 @@
       </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="3" t="n">
+    <row r="29" spans="4:14">
+      <c r="J29" s="3">
         <v>28</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -1091,8 +1309,8 @@
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="5" t="n">
+    <row r="30" spans="4:14">
+      <c r="J30" s="5">
         <v>29</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -1103,8 +1321,8 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="3" t="n">
+    <row r="31" spans="4:14">
+      <c r="J31" s="3">
         <v>30</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -1115,8 +1333,8 @@
       </c>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="5" t="n">
+    <row r="32" spans="4:14">
+      <c r="J32" s="5">
         <v>31</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -1127,8 +1345,8 @@
       </c>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="3" t="n">
+    <row r="33" spans="10:13">
+      <c r="J33" s="3">
         <v>32</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -1139,8 +1357,8 @@
       </c>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="5" t="n">
+    <row r="34" spans="10:13">
+      <c r="J34" s="5">
         <v>33</v>
       </c>
       <c r="K34" s="3" t="s">
@@ -1151,8 +1369,8 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="3" t="n">
+    <row r="35" spans="10:13">
+      <c r="J35" s="3">
         <v>34</v>
       </c>
       <c r="K35" s="3" t="s">
@@ -1163,8 +1381,8 @@
       </c>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="5" t="n">
+    <row r="36" spans="10:13">
+      <c r="J36" s="5">
         <v>35</v>
       </c>
       <c r="K36" s="3" t="s">
@@ -1175,8 +1393,8 @@
       </c>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="3" t="n">
+    <row r="37" spans="10:13">
+      <c r="J37" s="3">
         <v>36</v>
       </c>
       <c r="K37" s="3" t="s">
@@ -1187,284 +1405,284 @@
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="5" t="n">
+    <row r="38" spans="10:13">
+      <c r="J38" s="5">
         <v>37</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="3" t="n">
+    <row r="39" spans="10:13">
+      <c r="J39" s="3">
         <v>38</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="L39" t="s">
         <v>26</v>
       </c>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="5" t="n">
+    <row r="40" spans="10:13">
+      <c r="J40" s="5">
         <v>39</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" t="s">
         <v>26</v>
       </c>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="3" t="n">
+    <row r="41" spans="10:13">
+      <c r="J41" s="3">
         <v>40</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" t="s">
         <v>26</v>
       </c>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="5" t="n">
+    <row r="42" spans="10:13">
+      <c r="J42" s="5">
         <v>41</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" t="s">
         <v>26</v>
       </c>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="3" t="n">
+    <row r="43" spans="10:13">
+      <c r="J43" s="3">
         <v>42</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="0" t="s">
+      <c r="L43" t="s">
         <v>26</v>
       </c>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="5" t="n">
+    <row r="44" spans="10:13">
+      <c r="J44" s="5">
         <v>43</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" t="s">
         <v>26</v>
       </c>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="3" t="n">
+    <row r="45" spans="10:13">
+      <c r="J45" s="3">
         <v>44</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" t="s">
         <v>26</v>
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="5" t="n">
+    <row r="46" spans="10:13">
+      <c r="J46" s="5">
         <v>45</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" t="s">
         <v>12</v>
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="3" t="n">
+    <row r="47" spans="10:13">
+      <c r="J47" s="3">
         <v>46</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" t="s">
         <v>12</v>
       </c>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="5" t="n">
+    <row r="48" spans="10:13">
+      <c r="J48" s="5">
         <v>47</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" t="s">
         <v>12</v>
       </c>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="3" t="n">
+    <row r="49" spans="10:13">
+      <c r="J49" s="3">
         <v>48</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" t="s">
         <v>12</v>
       </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="5" t="n">
+    <row r="50" spans="10:13">
+      <c r="J50" s="5">
         <v>49</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="0" t="s">
+      <c r="L50" t="s">
         <v>12</v>
       </c>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="3" t="n">
+    <row r="51" spans="10:13">
+      <c r="J51" s="3">
         <v>50</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="0" t="s">
+      <c r="L51" t="s">
         <v>12</v>
       </c>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="5" t="n">
+    <row r="52" spans="10:13">
+      <c r="J52" s="5">
         <v>51</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="0" t="s">
+      <c r="L52" t="s">
         <v>12</v>
       </c>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="3" t="n">
+    <row r="53" spans="10:13">
+      <c r="J53" s="3">
         <v>52</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="L53" t="s">
         <v>12</v>
       </c>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J54" s="5" t="n">
+    <row r="54" spans="10:13">
+      <c r="J54" s="5">
         <v>53</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="0" t="s">
+      <c r="L54" t="s">
         <v>12</v>
       </c>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J55" s="3" t="n">
+    <row r="55" spans="10:13">
+      <c r="J55" s="3">
         <v>54</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="0" t="s">
+      <c r="L55" t="s">
         <v>12</v>
       </c>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J56" s="5" t="n">
+    <row r="56" spans="10:13">
+      <c r="J56" s="5">
         <v>55</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="0" t="s">
+      <c r="L56" t="s">
         <v>12</v>
       </c>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J57" s="3" t="n">
+    <row r="57" spans="10:13">
+      <c r="J57" s="3">
         <v>56</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" t="s">
         <v>12</v>
       </c>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J58" s="5" t="n">
+    <row r="58" spans="10:13">
+      <c r="J58" s="5">
         <v>57</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="0" t="s">
+      <c r="L58" t="s">
         <v>12</v>
       </c>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J59" s="3" t="n">
+    <row r="59" spans="10:13">
+      <c r="J59" s="3">
         <v>58</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="0" t="s">
+      <c r="L59" t="s">
         <v>12</v>
       </c>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J60" s="5" t="n">
+    <row r="60" spans="10:13">
+      <c r="J60" s="5">
         <v>59</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="0" t="s">
+      <c r="L60" t="s">
         <v>12</v>
       </c>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J61" s="3" t="n">
+    <row r="61" spans="10:13">
+      <c r="J61" s="3">
         <v>60</v>
       </c>
       <c r="K61" s="3" t="s">
@@ -1475,20 +1693,20 @@
       </c>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J62" s="5" t="n">
+    <row r="62" spans="10:13">
+      <c r="J62" s="5">
         <v>61</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="0" t="s">
+      <c r="L62" t="s">
         <v>12</v>
       </c>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J63" s="3" t="n">
+    <row r="63" spans="10:13">
+      <c r="J63" s="3">
         <v>62</v>
       </c>
       <c r="K63" s="3" t="s">
@@ -1499,8 +1717,8 @@
       </c>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J64" s="5" t="n">
+    <row r="64" spans="10:13">
+      <c r="J64" s="5">
         <v>63</v>
       </c>
       <c r="K64" s="3" t="s">
@@ -1511,8 +1729,8 @@
       </c>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J65" s="3" t="n">
+    <row r="65" spans="10:13">
+      <c r="J65" s="3">
         <v>64</v>
       </c>
       <c r="K65" s="3" t="s">
@@ -1523,8 +1741,8 @@
       </c>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J66" s="5" t="n">
+    <row r="66" spans="10:13">
+      <c r="J66" s="5">
         <v>65</v>
       </c>
       <c r="K66" s="3" t="s">
@@ -1535,8 +1753,8 @@
       </c>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J67" s="3" t="n">
+    <row r="67" spans="10:13">
+      <c r="J67" s="3">
         <v>66</v>
       </c>
       <c r="K67" s="3" t="s">
@@ -1547,8 +1765,8 @@
       </c>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J68" s="5" t="n">
+    <row r="68" spans="10:13">
+      <c r="J68" s="5">
         <v>67</v>
       </c>
       <c r="K68" s="3" t="s">
@@ -1559,8 +1777,8 @@
       </c>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J69" s="3" t="n">
+    <row r="69" spans="10:13">
+      <c r="J69" s="3">
         <v>68</v>
       </c>
       <c r="K69" s="3" t="s">
@@ -1571,8 +1789,8 @@
       </c>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J70" s="5" t="n">
+    <row r="70" spans="10:13">
+      <c r="J70" s="5">
         <v>69</v>
       </c>
       <c r="K70" s="3" t="s">
@@ -1583,95 +1801,94 @@
       </c>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J71" s="3" t="n">
+    <row r="71" spans="10:13">
+      <c r="J71" s="3">
         <v>70</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L71" s="0" t="s">
+      <c r="L71" t="s">
         <v>12</v>
       </c>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J72" s="5" t="n">
+    <row r="72" spans="10:13">
+      <c r="J72" s="5">
         <v>71</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="0" t="s">
+      <c r="L72" t="s">
         <v>12</v>
       </c>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J73" s="3" t="n">
+    <row r="73" spans="10:13">
+      <c r="J73" s="3">
         <v>72</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L73" s="0" t="s">
+      <c r="L73" t="s">
         <v>12</v>
       </c>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J74" s="5" t="n">
+    <row r="74" spans="10:13">
+      <c r="J74" s="5">
         <v>73</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="0" t="s">
+      <c r="L74" t="s">
         <v>12</v>
       </c>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J75" s="3" t="n">
+    <row r="75" spans="10:13">
+      <c r="J75" s="3">
         <v>74</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L75" s="0" t="s">
+      <c r="L75" t="s">
         <v>12</v>
       </c>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J76" s="5" t="n">
+    <row r="76" spans="10:13">
+      <c r="J76" s="5">
         <v>75</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L76" s="0" t="s">
+      <c r="L76" t="s">
         <v>12</v>
       </c>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J77" s="3" t="n">
+    <row r="77" spans="10:13">
+      <c r="J77" s="3">
         <v>76</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L77" s="0" t="s">
+      <c r="L77" t="s">
         <v>12</v>
       </c>
       <c r="M77" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
